--- a/Skills.xlsx
+++ b/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C945FB-771D-4B5D-967D-FC1B425FDB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1F6AC2-BB45-468C-8EA0-45140B27B7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="909" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="SkillLevelDesc" sheetId="95" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1740,7 +1741,7 @@
   <dimension ref="A1:AX909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2019,9 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFC5446-335A-45F3-883C-6272B906592A}">
   <dimension ref="A1:A399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>

--- a/Skills.xlsx
+++ b/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38106C6-7935-4C37-8674-251D02C7A707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580AAB9B-B214-4E0F-9C3B-87DE82F07DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="909" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SoftwareArchitecting" sheetId="99" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="436">
   <si>
     <t>HTML</t>
   </si>
@@ -1311,6 +1311,36 @@
   </si>
   <si>
     <t>Web Development Course</t>
+  </si>
+  <si>
+    <t>Software Architect Roles and responcibilities</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>HTML, CSS</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Sub Topic</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Naming</t>
+  </si>
+  <si>
+    <t>PPT Overview</t>
+  </si>
+  <si>
+    <t>eBook reading</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1351,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1382,8 +1412,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,6 +1430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1435,6 +1478,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1774,12 +1818,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1738EB72-22D2-463C-A3ED-5DAA6EF2063A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17">
+        <v>43831</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="17">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="17">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="17">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="17">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="17">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="17">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="17">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="17">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="17">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="17">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="17">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="17">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="17">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="17">
+        <v>43861</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1797,6 +2005,7 @@
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3660,184 +3869,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE96A848-7A24-484F-9690-7C36A4F5AC0B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17">
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17">
         <v>43831</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17">
+    <row r="3" spans="1:4">
+      <c r="A3" s="17">
         <v>43832</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="B3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17">
         <v>43833</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="17">
+    <row r="5" spans="1:4">
+      <c r="A5" s="17">
         <v>43834</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17">
+    <row r="6" spans="1:4">
+      <c r="A6" s="17">
         <v>43835</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="17">
+    <row r="7" spans="1:4">
+      <c r="A7" s="17">
         <v>43836</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="17">
+    <row r="8" spans="1:4">
+      <c r="A8" s="17">
         <v>43837</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="17">
+    <row r="9" spans="1:4">
+      <c r="A9" s="17">
         <v>43838</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="17">
+    <row r="10" spans="1:4">
+      <c r="A10" s="17">
         <v>43839</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="17">
+    <row r="11" spans="1:4">
+      <c r="A11" s="17">
         <v>43840</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17">
+    <row r="12" spans="1:4">
+      <c r="A12" s="17">
         <v>43841</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="17">
+    <row r="13" spans="1:4">
+      <c r="A13" s="17">
         <v>43842</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="17">
+    <row r="14" spans="1:4">
+      <c r="A14" s="17">
         <v>43843</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="17">
+    <row r="15" spans="1:4">
+      <c r="A15" s="17">
         <v>43844</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="17">
+    <row r="16" spans="1:4">
+      <c r="A16" s="17">
         <v>43845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="17">
-        <v>43846</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="17">
-        <v>43847</v>
+        <v>43846</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="17">
-        <v>43848</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="17">
-        <v>43849</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="17">
-        <v>43850</v>
+        <v>43849</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="17">
-        <v>43851</v>
+        <v>43850</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="17">
-        <v>43852</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="17">
-        <v>43853</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="17">
-        <v>43854</v>
+        <v>43853</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="17">
-        <v>43855</v>
+        <v>43854</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="17">
-        <v>43856</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="17">
-        <v>43857</v>
+        <v>43856</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="17">
-        <v>43858</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="17">
-        <v>43859</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="17">
-        <v>43860</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="17">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="17">
         <v>43861</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{FD6A68DF-A5C7-4BF7-8C78-D747960E076D}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FD6A68DF-A5C7-4BF7-8C78-D747960E076D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3846,12 +4080,12 @@
   <dimension ref="A1:AX909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.109375" customWidth="1"/>
@@ -3864,19 +4098,16 @@
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>273</v>
+        <v>418</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>272</v>
+        <v>428</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>274</v>
+        <v>431</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="AW1" s="7" t="s">
         <v>275</v>
@@ -3886,20 +4117,17 @@
       </c>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>363</v>
+      <c r="A2" s="17">
+        <v>43831</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>282</v>
@@ -3909,17 +4137,17 @@
       </c>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" t="s">
-        <v>360</v>
+      <c r="A3" s="17">
+        <v>43832</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>281</v>
@@ -3929,17 +4157,17 @@
       </c>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" t="s">
-        <v>358</v>
+      <c r="A4" s="17">
+        <v>43833</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>360</v>
@@ -3949,8 +4177,8 @@
       </c>
     </row>
     <row r="5" spans="1:50">
-      <c r="A5" t="s">
-        <v>395</v>
+      <c r="A5" s="17">
+        <v>43834</v>
       </c>
       <c r="AW5" s="3" t="s">
         <v>359</v>
@@ -3960,6 +4188,9 @@
       </c>
     </row>
     <row r="6" spans="1:50">
+      <c r="A6" s="17">
+        <v>43835</v>
+      </c>
       <c r="AW6" s="3" t="s">
         <v>358</v>
       </c>
@@ -3968,6 +4199,9 @@
       </c>
     </row>
     <row r="7" spans="1:50">
+      <c r="A7" s="17">
+        <v>43836</v>
+      </c>
       <c r="AW7" s="3" t="s">
         <v>361</v>
       </c>
@@ -3976,37 +4210,144 @@
       </c>
     </row>
     <row r="8" spans="1:50">
+      <c r="A8" s="17">
+        <v>43837</v>
+      </c>
       <c r="AX8" s="3"/>
     </row>
     <row r="9" spans="1:50">
+      <c r="A9" s="17">
+        <v>43838</v>
+      </c>
       <c r="AW9" s="9"/>
       <c r="AX9" s="10"/>
     </row>
     <row r="10" spans="1:50">
+      <c r="A10" s="17">
+        <v>43839</v>
+      </c>
       <c r="AW10" s="9"/>
       <c r="AX10" s="10"/>
     </row>
     <row r="11" spans="1:50">
+      <c r="A11" s="17">
+        <v>43840</v>
+      </c>
       <c r="AW11" s="9"/>
       <c r="AX11" s="10"/>
     </row>
     <row r="12" spans="1:50">
+      <c r="A12" s="17">
+        <v>43841</v>
+      </c>
       <c r="AW12" s="9"/>
       <c r="AX12" s="10"/>
     </row>
     <row r="13" spans="1:50">
+      <c r="A13" s="17">
+        <v>43842</v>
+      </c>
       <c r="AW13" s="9"/>
       <c r="AX13" s="10"/>
     </row>
     <row r="14" spans="1:50">
+      <c r="A14" s="17">
+        <v>43843</v>
+      </c>
       <c r="AW14" s="10"/>
       <c r="AX14" s="11"/>
     </row>
-    <row r="17" spans="49:49">
+    <row r="15" spans="1:50">
+      <c r="A15" s="17">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" s="17">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49">
+      <c r="A17" s="17">
+        <v>43846</v>
+      </c>
       <c r="AW17" s="10"/>
     </row>
-    <row r="20" spans="49:49">
+    <row r="18" spans="1:49">
+      <c r="A18" s="17">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49">
+      <c r="A19" s="17">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49">
+      <c r="A20" s="17">
+        <v>43849</v>
+      </c>
       <c r="AW20" s="10"/>
+    </row>
+    <row r="21" spans="1:49">
+      <c r="A21" s="17">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49">
+      <c r="A22" s="17">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49">
+      <c r="A23" s="17">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49">
+      <c r="A24" s="17">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49">
+      <c r="A25" s="17">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49">
+      <c r="A26" s="17">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49">
+      <c r="A27" s="17">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49">
+      <c r="A28" s="17">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49">
+      <c r="A29" s="17">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49">
+      <c r="A30" s="17">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49">
+      <c r="A31" s="17">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49">
+      <c r="A32" s="17">
+        <v>43861</v>
+      </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="1"/>
@@ -4109,10 +4450,10 @@
     <sortCondition ref="A884"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:D1000" xr:uid="{D9DCFDAC-519C-4892-9FF4-B465F66035AB}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C7:D1000" xr:uid="{D9DCFDAC-519C-4892-9FF4-B465F66035AB}">
       <formula1>$AW$2:$AW$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1000" xr:uid="{BCB12E93-2ECA-44C8-8D84-EB86167F16C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000" xr:uid="{BCB12E93-2ECA-44C8-8D84-EB86167F16C1}">
       <formula1>$AX$2:$AX$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -4123,10 +4464,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53694EEC-0F92-4FEB-AE99-C2595A98D793}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4222,7 +4563,82 @@
         <v>397</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B11" xr:uid="{BCB12E93-2ECA-44C8-8D84-EB86167F16C1}">
+      <formula1>$AX$2:$AX$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C7:D11" xr:uid="{D9DCFDAC-519C-4892-9FF4-B465F66035AB}">
+      <formula1>$AW$2:$AW$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Skills.xlsx
+++ b/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ED2B13-63F0-4DA9-A8BF-C47205DFBAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B9371-B8F7-4F24-891B-AD19CEAA0444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="909" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="909" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SoftwareArchitecting" sheetId="99" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="438">
   <si>
     <t>HTML</t>
   </si>
@@ -1073,9 +1073,6 @@
   </si>
   <si>
     <t xml:space="preserve">Scala </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrum </t>
   </si>
   <si>
     <t xml:space="preserve">Selenium </t>
@@ -1340,13 +1337,16 @@
     <t>eBook reading</t>
   </si>
   <si>
-    <t>Visio</t>
-  </si>
-  <si>
     <t>a diagramming and vector graphics application and is part of the Microsoft Office family</t>
   </si>
   <si>
     <t>Microsoft Visio</t>
+  </si>
+  <si>
+    <t>Fiddler is a free web debugging tool which logs all HTTP(S) traffic between your computer and the Internet.</t>
+  </si>
+  <si>
+    <t>5.0, 4.0</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1448,6 +1448,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1795,7 +1796,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1803,7 +1804,7 @@
         <v>43831</v>
       </c>
       <c r="B1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2C66E8-463B-4884-9C64-E7830317AB45}">
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,16 +1980,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s">
         <v>273</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1996,25 +1997,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43832</v>
       </c>
-      <c r="B3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D3" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
@@ -2060,6 +2055,12 @@
       <c r="A12" s="9">
         <v>43841</v>
       </c>
+      <c r="B12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D12" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
@@ -2081,82 +2082,91 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>43846</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>43847</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>43848</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>43849</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>43850</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>43851</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>43852</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>43853</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>43854</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>43855</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>43856</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>43857</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>43858</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>43859</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>43860</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>43861</v>
       </c>
@@ -3844,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE96A848-7A24-484F-9690-7C36A4F5AC0B}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3859,16 +3869,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>427</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3876,13 +3886,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3890,155 +3900,269 @@
         <v>43832</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <v>43833</v>
+        <v>43834</v>
+      </c>
+      <c r="B4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <v>43834</v>
+        <v>43835</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <v>43835</v>
+        <v>43839</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>43836</v>
+        <v>43841</v>
+      </c>
+      <c r="B7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <v>43837</v>
+        <v>43843</v>
+      </c>
+      <c r="B8" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <v>43838</v>
+        <v>43850</v>
+      </c>
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <v>43839</v>
+        <v>43864</v>
+      </c>
+      <c r="B10" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
-        <v>43840</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
-        <v>43841</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <v>43842</v>
+        <v>43884</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <v>43843</v>
+        <v>43885</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>43844</v>
+        <v>43886</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <v>43845</v>
+        <v>43887</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <v>43846</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>43847</v>
+        <v>43889</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <v>43848</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>43849</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>43850</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <v>43851</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <v>43852</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <v>43853</v>
+        <v>43895</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
-        <v>43854</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>43855</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>43856</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>43857</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>43858</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>43859</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
-        <v>43860</v>
+        <v>43902</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
-        <v>43861</v>
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>43921</v>
       </c>
     </row>
   </sheetData>
@@ -4073,16 +4197,16 @@
   <sheetData>
     <row r="1" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="AW1" s="4" t="s">
         <v>275</v>
@@ -4096,13 +4220,13 @@
         <v>43831</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>282</v>
@@ -4116,13 +4240,13 @@
         <v>43832</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>281</v>
@@ -4136,16 +4260,16 @@
         <v>43833</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>278</v>
@@ -4156,7 +4280,7 @@
         <v>43834</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>220</v>
@@ -4211,62 +4335,62 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4283,7 +4407,7 @@
         <v>284</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4297,10 +4421,10 @@
         <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -4314,26 +4438,26 @@
         <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4351,10 +4475,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFC5446-335A-45F3-883C-6272B906592A}">
-  <dimension ref="A1:A399"/>
+  <dimension ref="A1:A397"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293:XFD293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4364,12 +4488,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -4379,7 +4503,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -4409,7 +4533,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -4429,7 +4553,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -4454,7 +4578,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -4514,7 +4638,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -4634,7 +4758,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
@@ -4948,413 +5072,413 @@
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>383</v>
+      <c r="A118" s="13" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>389</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>125</v>
+      <c r="A122" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>264</v>
+      <c r="A126" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>52</v>
+      <c r="A135" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>252</v>
+      <c r="A136" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
-        <v>305</v>
+      <c r="A138" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>0</v>
+      <c r="A139" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
-        <v>193</v>
+      <c r="A140" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>401</v>
+      <c r="A142" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>392</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>31</v>
+      <c r="A149" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>385</v>
+      <c r="A150" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>173</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>306</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>307</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>310</v>
+      <c r="A165" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>256</v>
+      <c r="A166" s="5" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>400</v>
+      <c r="A167" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>399</v>
+      <c r="A168" s="5" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>382</v>
+      <c r="A169" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>260</v>
+      <c r="A170" s="5" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>312</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>190</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
-        <v>411</v>
+      <c r="A174" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>8</v>
+      <c r="A175" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
-        <v>313</v>
+      <c r="A176" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>261</v>
+      <c r="A177" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
-        <v>229</v>
+      <c r="A188" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>248</v>
+      <c r="A189" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
-        <v>88</v>
+      <c r="A195" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
-        <v>268</v>
+      <c r="A196" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>118</v>
+        <v>435</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
@@ -5454,7 +5578,7 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
@@ -5469,7 +5593,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
@@ -5479,7 +5603,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
@@ -5499,7 +5623,7 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
@@ -5734,7 +5858,7 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
@@ -5824,342 +5948,342 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>347</v>
+        <v>209</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
-        <v>348</v>
+        <v>102</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>102</v>
+        <v>348</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
-        <v>349</v>
+        <v>189</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="5" t="s">
-        <v>77</v>
+      <c r="A301" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
-        <v>255</v>
+      <c r="A303" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="5" t="s">
-        <v>167</v>
+      <c r="A304" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
-        <v>240</v>
+      <c r="A305" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="5" t="s">
-        <v>14</v>
+      <c r="A306" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
-        <v>236</v>
+      <c r="A307" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="5" t="s">
-        <v>66</v>
+      <c r="A308" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="5" t="s">
-        <v>270</v>
+      <c r="A310" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
-        <v>44</v>
+      <c r="A313" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>67</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
-        <v>414</v>
+        <v>46</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="5" t="s">
-        <v>123</v>
+      <c r="A319" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
-        <v>262</v>
+      <c r="A321" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
-        <v>162</v>
+        <v>350</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="5" t="s">
-        <v>153</v>
+      <c r="A332" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
-        <v>402</v>
+      <c r="A333" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
-        <v>126</v>
+        <v>392</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" s="5" t="s">
-        <v>403</v>
+      <c r="A341" s="3" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
-        <v>405</v>
+      <c r="A342" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" s="5" t="s">
-        <v>384</v>
+      <c r="A344" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="3" t="s">
-        <v>4</v>
+      <c r="A345" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" s="5" t="s">
-        <v>212</v>
+      <c r="A347" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
-        <v>219</v>
+      <c r="A348" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" s="5" t="s">
-        <v>213</v>
+      <c r="A349" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="7" t="s">
-        <v>391</v>
+      <c r="A350" s="5" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="5" t="s">
-        <v>90</v>
+      <c r="A353" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
-        <v>246</v>
+      <c r="A354" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" s="5" t="s">
-        <v>353</v>
+      <c r="A360" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
@@ -6169,137 +6293,127 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>387</v>
+        <v>242</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
-        <v>265</v>
+      <c r="A364" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
-        <v>215</v>
+        <v>353</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
-        <v>354</v>
+        <v>48</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" s="5" t="s">
-        <v>104</v>
+      <c r="A368" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" s="3" t="s">
-        <v>5</v>
+      <c r="A369" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
-        <v>355</v>
+        <v>130</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
-        <v>279</v>
+        <v>49</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" s="5" t="s">
-        <v>217</v>
+      <c r="A375" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
-        <v>271</v>
+      <c r="A376" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" s="5" t="s">
-        <v>50</v>
+      <c r="A378" s="10" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" s="10" t="s">
-        <v>420</v>
+      <c r="A379" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
-        <v>356</v>
+        <v>181</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" s="5" t="s">
-        <v>181</v>
+      <c r="A381" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" s="5" t="s">
+      <c r="A382" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" s="5" t="s">
-        <v>435</v>
-      </c>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="3"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="3"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" s="3"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" s="3"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="7"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="3"/>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="7"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A1:A399">
-    <sortCondition ref="A363"/>
+  <sortState ref="A1:A397">
+    <sortCondition ref="A85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Skills.xlsx
+++ b/Skills.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D539D277-C909-4103-9380-340FE6AFF3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E21FD4-277A-466B-87D6-A5DD993152C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="909" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillLevelDesc" sheetId="95" r:id="rId1"/>
-    <sheet name="AllSkills" sheetId="94" r:id="rId2"/>
-    <sheet name="Tools" sheetId="100" r:id="rId3"/>
-    <sheet name="Designations" sheetId="101" r:id="rId4"/>
-    <sheet name="Certifications" sheetId="102" r:id="rId5"/>
+    <sheet name="ResumeSkills" sheetId="103" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="105" r:id="rId3"/>
+    <sheet name="Interview" sheetId="104" r:id="rId4"/>
+    <sheet name="AllSkills" sheetId="94" r:id="rId5"/>
+    <sheet name="Tools" sheetId="100" r:id="rId6"/>
+    <sheet name="Certifications" sheetId="102" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="106" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk33462317" localSheetId="2">Sheet1!$B$7</definedName>
+    <definedName name="_Hlk33476423" localSheetId="2">Sheet1!$B$4</definedName>
+    <definedName name="_Hlk33476566" localSheetId="2">Sheet1!$B$8</definedName>
+    <definedName name="_Hlk33476810" localSheetId="2">Sheet1!$B$23</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="608">
   <si>
     <t>HTML</t>
   </si>
@@ -1092,6 +1101,771 @@
   </si>
   <si>
     <t>Enterprise Architecting</t>
+  </si>
+  <si>
+    <t>.NET Framework 4.x, 3.x, 2.0</t>
+  </si>
+  <si>
+    <t>3-Tier Architecture</t>
+  </si>
+  <si>
+    <t>ADO</t>
+  </si>
+  <si>
+    <t>ADO.NET</t>
+  </si>
+  <si>
+    <t>Advance Query Tool (AQT)</t>
+  </si>
+  <si>
+    <t>Agent Ransack</t>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
+    <t>AJAX 2.0</t>
+  </si>
+  <si>
+    <t>Angular 2.0, 4.0</t>
+  </si>
+  <si>
+    <t>Apache Subversion SVN</t>
+  </si>
+  <si>
+    <t>Application Security Flaws</t>
+  </si>
+  <si>
+    <t>Architecture Documents</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>ASP.NET 4.x,3.x,2.0</t>
+  </si>
+  <si>
+    <t>Atlassian Confluence</t>
+  </si>
+  <si>
+    <t>audit-built documentation</t>
+  </si>
+  <si>
+    <t>backlog grooming</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Barracuda</t>
+  </si>
+  <si>
+    <t>Beyond Compare</t>
+  </si>
+  <si>
+    <t>BootStrap</t>
+  </si>
+  <si>
+    <t>Business Process Engineering</t>
+  </si>
+  <si>
+    <t>Business Skype</t>
+  </si>
+  <si>
+    <t>C# 6.0, 5.0, 4.0, 3.0</t>
+  </si>
+  <si>
+    <t>C#.NET</t>
+  </si>
+  <si>
+    <t>CA Rally</t>
+  </si>
+  <si>
+    <t>CAPA</t>
+  </si>
+  <si>
+    <t>Client frameworks</t>
+  </si>
+  <si>
+    <t>Client Utility</t>
+  </si>
+  <si>
+    <t>Client/-Server Architecture</t>
+  </si>
+  <si>
+    <t>code audit documents</t>
+  </si>
+  <si>
+    <t>Code Refactoring</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Collaboration Tool</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Continuous Integration jobs building</t>
+  </si>
+  <si>
+    <t>Continuous Integration Tools</t>
+  </si>
+  <si>
+    <t>Crucible-FishEye</t>
+  </si>
+  <si>
+    <t>CSS3</t>
+  </si>
+  <si>
+    <t>Data Query Tools</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Development Tool</t>
+  </si>
+  <si>
+    <t>Distributed Architecture</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Dry Run</t>
+  </si>
+  <si>
+    <t>Electrical panels and boards</t>
+  </si>
+  <si>
+    <t>enhancements</t>
+  </si>
+  <si>
+    <t>Enterprise Architecture Framework</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>estimation of work</t>
+  </si>
+  <si>
+    <t>Evaluation of dependencies</t>
+  </si>
+  <si>
+    <t>Event Viewer</t>
+  </si>
+  <si>
+    <t>Experience in working with the offshore team</t>
+  </si>
+  <si>
+    <t>Fiddler</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>first time right approach</t>
+  </si>
+  <si>
+    <t>Flexera</t>
+  </si>
+  <si>
+    <t>flexible to fit anywhere in the team</t>
+  </si>
+  <si>
+    <t>Forge Shop</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Full Stack developer</t>
+  </si>
+  <si>
+    <t>functional design of product</t>
+  </si>
+  <si>
+    <t>Gap Analysis</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>GravityDev</t>
+  </si>
+  <si>
+    <t>Hot Fix</t>
+  </si>
+  <si>
+    <t>HP Quality Center</t>
+  </si>
+  <si>
+    <t>HTML Page</t>
+  </si>
+  <si>
+    <t>IBM DB2</t>
+  </si>
+  <si>
+    <t>IBM Urban Code Deployment (UCD)</t>
+  </si>
+  <si>
+    <t>Identifying and providing solution</t>
+  </si>
+  <si>
+    <t>IIS 6.0 / 7.0</t>
+  </si>
+  <si>
+    <t>Impact Analysis</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>individually take-up and completion of the tasks</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Internet Technologies</t>
+  </si>
+  <si>
+    <t>IT support</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript File</t>
+  </si>
+  <si>
+    <t>Jet SQL</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>JIRA/Rally stories</t>
+  </si>
+  <si>
+    <t>JQuery</t>
+  </si>
+  <si>
+    <t>leading a team</t>
+  </si>
+  <si>
+    <t>learn technical and business knowledge quickly</t>
+  </si>
+  <si>
+    <t>Legacy Applications and Systems</t>
+  </si>
+  <si>
+    <t>LINQ</t>
+  </si>
+  <si>
+    <t>LINQ to SQL</t>
+  </si>
+  <si>
+    <t>Master Page</t>
+  </si>
+  <si>
+    <t>merging</t>
+  </si>
+  <si>
+    <t>Micro ORM</t>
+  </si>
+  <si>
+    <t>Micro Service</t>
+  </si>
+  <si>
+    <t>Microsoft .NET Framework</t>
+  </si>
+  <si>
+    <t>Microsoft Certified Professional</t>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>Microsoft Outlook</t>
+  </si>
+  <si>
+    <t>Microsoft SharePoint</t>
+  </si>
+  <si>
+    <t>mini specs</t>
+  </si>
+  <si>
+    <t>Model-View-Control (MVC)</t>
+  </si>
+  <si>
+    <t>MS Lync</t>
+  </si>
+  <si>
+    <t>MS Outlook</t>
+  </si>
+  <si>
+    <t>MS SharePoint</t>
+  </si>
+  <si>
+    <t>MS source safe</t>
+  </si>
+  <si>
+    <t>MS Visual Studio</t>
+  </si>
+  <si>
+    <t>MVC 4.0</t>
+  </si>
+  <si>
+    <t>MVC Web Application</t>
+  </si>
+  <si>
+    <t>OWASP</t>
+  </si>
+  <si>
+    <t>OWASP Security flaws</t>
+  </si>
+  <si>
+    <t>pair programming</t>
+  </si>
+  <si>
+    <t>peer programming</t>
+  </si>
+  <si>
+    <t>Performing Risk Analysis</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>preparation of technical documents</t>
+  </si>
+  <si>
+    <t>priorities of work</t>
+  </si>
+  <si>
+    <t>problem-solving</t>
+  </si>
+  <si>
+    <t>Product Architect</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>productive team player</t>
+  </si>
+  <si>
+    <t>Productivity Tool</t>
+  </si>
+  <si>
+    <t>Professional Certifications</t>
+  </si>
+  <si>
+    <t>Proficient to work in a team</t>
+  </si>
+  <si>
+    <t>Programming Languages</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>provide work around</t>
+  </si>
+  <si>
+    <t>providing technical knowledge and training</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Quality Center</t>
+  </si>
+  <si>
+    <t>quick release</t>
+  </si>
+  <si>
+    <t>Rally TestFlow</t>
+  </si>
+  <si>
+    <t>RCA Documents</t>
+  </si>
+  <si>
+    <t>releases</t>
+  </si>
+  <si>
+    <t>Remedy Incident management</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Requirement gathering</t>
+  </si>
+  <si>
+    <t>ReSharper 7.1</t>
+  </si>
+  <si>
+    <t>resolving issues</t>
+  </si>
+  <si>
+    <t>Resource File</t>
+  </si>
+  <si>
+    <t>SAFe AGILE</t>
+  </si>
+  <si>
+    <t>Scaled Agile Framework</t>
+  </si>
+  <si>
+    <t>Scripting Languages</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>setting UAT machine for Testing</t>
+  </si>
+  <si>
+    <t>Skills Summary</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>software applications</t>
+  </si>
+  <si>
+    <t>Software Development Life Cycle</t>
+  </si>
+  <si>
+    <t>Software Development Models</t>
+  </si>
+  <si>
+    <t>SOLID Principles</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>source code</t>
+  </si>
+  <si>
+    <t>Source code management</t>
+  </si>
+  <si>
+    <t>Source Control</t>
+  </si>
+  <si>
+    <t>speedy development</t>
+  </si>
+  <si>
+    <t>SPOC</t>
+  </si>
+  <si>
+    <t>SQL Profiler</t>
+  </si>
+  <si>
+    <t>SQL Server 2016,2012,2008 R2,2005,2000</t>
+  </si>
+  <si>
+    <t>SqlDataReader</t>
+  </si>
+  <si>
+    <t>SSMS</t>
+  </si>
+  <si>
+    <t>stakeholder requirements</t>
+  </si>
+  <si>
+    <t>stakeholders</t>
+  </si>
+  <si>
+    <t>story estimation</t>
+  </si>
+  <si>
+    <t>Style Sheet</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>team management skill</t>
+  </si>
+  <si>
+    <t>Team Viewer</t>
+  </si>
+  <si>
+    <t>teamwork</t>
+  </si>
+  <si>
+    <t>Technical Sign-off and Business Sign-off</t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <t>Technology &amp; Tools</t>
+  </si>
+  <si>
+    <t>test cases</t>
+  </si>
+  <si>
+    <t>Testing Tools</t>
+  </si>
+  <si>
+    <t>time management</t>
+  </si>
+  <si>
+    <t>TOGAF 9.2</t>
+  </si>
+  <si>
+    <t>TortoiseSVN</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>VB 9.0, 8.0</t>
+  </si>
+  <si>
+    <t>verifying Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Visual Basic 6.0</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>VueJS</t>
+  </si>
+  <si>
+    <t>vulnerabilities issue</t>
+  </si>
+  <si>
+    <t>Web Application</t>
+  </si>
+  <si>
+    <t>Web Form</t>
+  </si>
+  <si>
+    <t>Web Forms Application</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Web Securities</t>
+  </si>
+  <si>
+    <t>Web Servers</t>
+  </si>
+  <si>
+    <t>Web Service Testing Tool</t>
+  </si>
+  <si>
+    <t>Web Technologies</t>
+  </si>
+  <si>
+    <t>WebEx</t>
+  </si>
+  <si>
+    <t>Windows 10,8,7,XP,Me,2000,98</t>
+  </si>
+  <si>
+    <t>Windows Application</t>
+  </si>
+  <si>
+    <t>Windows Form Application</t>
+  </si>
+  <si>
+    <t>Windows Installer</t>
+  </si>
+  <si>
+    <t>Windows XP</t>
+  </si>
+  <si>
+    <t>WinForm</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>LTI</t>
+  </si>
+  <si>
+    <t>Travelers</t>
+  </si>
+  <si>
+    <t>Application Security Technologist</t>
+  </si>
+  <si>
+    <t>Insurance, Banking, Finance, ERP, Electrical panels and boards, Forge Shop</t>
+  </si>
+  <si>
+    <t>Web Application, Windows Application, Web Services, Web Securities</t>
+  </si>
+  <si>
+    <t>C# 6.0, 5.0, 4.0, 3.0, VB 9.0, 8.0, VB.NET, C#.NET</t>
+  </si>
+  <si>
+    <t>JavaScript, JQuery, XML, HTML5, HTML, JSON, AJAX 2.0, VueJS, AngularJS, Angular 2.0, 4.0</t>
+  </si>
+  <si>
+    <t>ASP.NET 4.x, 3.x, 2.0, ASP</t>
+  </si>
+  <si>
+    <t>Development Model</t>
+  </si>
+  <si>
+    <t>Database Language</t>
+  </si>
+  <si>
+    <t>SQL, T-SQL, LINQ</t>
+  </si>
+  <si>
+    <t>Entity Framework, LINQ to SQL, ADO.NET, ADO</t>
+  </si>
+  <si>
+    <t>SQL Server 2016, 2012, 2008 R2, 2005, 2000, MySQL, DB2</t>
+  </si>
+  <si>
+    <t>SSMS, AQT</t>
+  </si>
+  <si>
+    <t>Crystal Report, MS RDLC</t>
+  </si>
+  <si>
+    <t>Application Framework</t>
+  </si>
+  <si>
+    <t>Web Forms Application, Windows Form Application, MVC Web Application, Micro Service, WebAPI</t>
+  </si>
+  <si>
+    <t>Postman, Fiddler</t>
+  </si>
+  <si>
+    <t>Code Review Tool</t>
+  </si>
+  <si>
+    <t>Crucible-FishEye, Sonar, GitHub</t>
+  </si>
+  <si>
+    <t>ReSharper 7.1, Event Viewer, SQL Profiler, Beyond Compare, Agent Ransack</t>
+  </si>
+  <si>
+    <t>MSTest, NUnit, TDD, SpecFlow, Quality Center, Rally TestFlow</t>
+  </si>
+  <si>
+    <t>Git, TortoiseSVN, MS source safe</t>
+  </si>
+  <si>
+    <t>Jenkins, UCD</t>
+  </si>
+  <si>
+    <t>AGILE Tools</t>
+  </si>
+  <si>
+    <t>Rally, JIRA, Trello, GravityDev</t>
+  </si>
+  <si>
+    <t>Windows 10, 8, 7, XP, Me, 2000, 98</t>
+  </si>
+  <si>
+    <t>MS SharePoint, MS Lync, MS Outlook, Barracuda, Skype, Business Skype, Slack, Atlassian Confluence, Remedy Incident management, CRM, Team Viewer, WebEx</t>
+  </si>
+  <si>
+    <t>Advanced Installer 10.3, 9.7</t>
+  </si>
+  <si>
+    <t>AGILE, Waterfall</t>
+  </si>
+  <si>
+    <t>CSS, CSS3, BootStrap</t>
+  </si>
+  <si>
+    <t>.NET Framework 4.x, 3.x, 2.0, TOGAF 9.2</t>
+  </si>
+  <si>
+    <t>Client-Server, 3-Tier Architecture, SOA, MVC, Distributed, TOGAF</t>
+  </si>
+  <si>
+    <t>Visual Studio 2019, 2017, 2015, 2012, 2010, 2008, 2005</t>
+  </si>
+  <si>
+    <t>Visual Studio 2019, 2017, 2015, 2012, 2010, 2008, 2005, Visual Basic 6.0, Advanced Installer 10.3, 9.7, Windows Installer, Flexera</t>
+  </si>
+  <si>
+    <t>HTML Page, JavaScript File, Style Sheet, Web Form, WinForm, Web Page, Master Page, Resource File, Class File, Windows Service, API</t>
+  </si>
+  <si>
+    <t>Cloude Architect</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Big Data Architect</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>Full Stack Web Developer</t>
+  </si>
+  <si>
+    <t>Test Automation Engineer</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Machine Learning</t>
+  </si>
+  <si>
+    <t>Big Data Engineer</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
   </si>
 </sst>
 </file>
@@ -1165,17 +1939,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1517,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53694EEC-0F92-4FEB-AE99-C2595A98D793}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,1571 +2472,3095 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFC5446-335A-45F3-883C-6272B906592A}">
-  <dimension ref="A1:A413"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB7A899-8D46-4D01-90A0-C03FAB9E1FA0}">
+  <dimension ref="A1:A244"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A280">
+    <sortCondition ref="A68"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9122EF5-181C-4156-A254-5D7807572927}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="142.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>574</v>
+      </c>
+      <c r="B16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>577</v>
+      </c>
+      <c r="B18" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>507</v>
+      </c>
+      <c r="B21" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>502</v>
+      </c>
+      <c r="B24" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DDA33A-3FE2-40E9-8EFD-8FAE2BDA2231}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E9E33D46-AA54-40A7-B2F6-A8EAEF4DD324}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFC5446-335A-45F3-883C-6272B906592A}">
+  <dimension ref="A1:A413"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="6" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="5" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
+      <c r="A242" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="s">
+      <c r="A243" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="7" t="s">
+      <c r="A246" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="7" t="s">
+      <c r="A247" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="7" t="s">
+      <c r="A249" s="6" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="6" t="s">
+      <c r="A250" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
+      <c r="A251" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="6" t="s">
+      <c r="A260" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="6" t="s">
+      <c r="A262" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="6" t="s">
+      <c r="A264" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="6" t="s">
+      <c r="A266" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="6" t="s">
+      <c r="A268" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="6" t="s">
+      <c r="A269" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="7" t="s">
+      <c r="A270" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
+      <c r="A271" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="6" t="s">
+      <c r="A272" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="7" t="s">
+      <c r="A273" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="s">
+      <c r="A274" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="7" t="s">
+      <c r="A276" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="s">
+      <c r="A279" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="6" t="s">
+      <c r="A282" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="7" t="s">
+      <c r="A283" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="6" t="s">
+      <c r="A288" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="7" t="s">
+      <c r="A290" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="7" t="s">
+      <c r="A292" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="7" t="s">
+      <c r="A293" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="7" t="s">
+      <c r="A294" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="7" t="s">
+      <c r="A295" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="s">
+      <c r="A296" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="6" t="s">
+      <c r="A297" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
+      <c r="A298" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="7" t="s">
+      <c r="A299" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="8" t="s">
+      <c r="A301" s="7" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="6" t="s">
+      <c r="A304" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="6" t="s">
+      <c r="A306" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="6" t="s">
+      <c r="A307" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="6" t="s">
+      <c r="A308" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="7" t="s">
+      <c r="A309" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="6" t="s">
+      <c r="A310" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="6" t="s">
+      <c r="A311" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3270,7 +5570,7 @@
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="6" t="s">
+      <c r="A313" s="5" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3280,47 +5580,47 @@
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="7" t="s">
+      <c r="A315" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="6" t="s">
+      <c r="A316" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="7"/>
+      <c r="A330" s="6"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="7"/>
+      <c r="A333" s="6"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" s="7"/>
+      <c r="A347" s="6"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" s="7"/>
+      <c r="A369" s="6"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="7"/>
+      <c r="A392" s="6"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="7"/>
+      <c r="A399" s="6"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="7"/>
+      <c r="A405" s="6"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="7"/>
+      <c r="A411" s="6"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="7"/>
+      <c r="A412" s="6"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="7"/>
+      <c r="A413" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A1:A414">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A414">
     <sortCondition ref="A291"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,7 +5628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6791F25C-99D0-401F-BDAE-2EBD95C2E47C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3342,7 +5642,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3362,19 +5662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8386A38-507F-465C-83FD-242D3930D65D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C9329-2108-4C1E-9E47-283DAE18593E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3409,4 +5697,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22910F0E-2FC4-45F8-8431-E457099C10ED}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>